--- a/loaded_influencer_data/ugc.withelle/ugc.withelle_video.xlsx
+++ b/loaded_influencer_data/ugc.withelle/ugc.withelle_video.xlsx
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.withelle/video/7469515752660274464</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3372</v>
+        <v>3419</v>
       </c>
       <c r="C2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15.09489916963227</v>
+        <v>14.88739397484645</v>
       </c>
       <c r="I2" t="n">
-        <v>13.2858837485172</v>
+        <v>13.13249488154431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.809015421115065</v>
+        <v>1.754899093302135</v>
       </c>
       <c r="L2" t="n">
-        <v>2.669039145907473</v>
+        <v>2.690845276396607</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -557,16 +557,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.withelle/video/7468362531787017505</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D3" t="n">
         <v>40</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15.18518518518519</v>
+        <v>15.22655426765016</v>
       </c>
       <c r="I3" t="n">
-        <v>13.06878306878307</v>
+        <v>13.1190727081138</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.116402116402116</v>
+        <v>2.107481559536354</v>
       </c>
       <c r="L3" t="n">
-        <v>3.015873015873016</v>
+        <v>3.055848261327713</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -607,16 +607,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.withelle/video/7468023374460030241</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="C4" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13.2688927943761</v>
+        <v>13.26973113616652</v>
       </c>
       <c r="I4" t="n">
-        <v>12.03866432337434</v>
+        <v>12.05550737207285</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.230228471001757</v>
+        <v>1.214223764093669</v>
       </c>
       <c r="L4" t="n">
-        <v>1.318101933216169</v>
+        <v>1.387684301821336</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -657,16 +657,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.withelle/video/7467290822023662880</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3219</v>
+        <v>3275</v>
       </c>
       <c r="C5" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D5" t="n">
         <v>56</v>
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11.83597390493942</v>
+        <v>11.69465648854962</v>
       </c>
       <c r="I5" t="n">
-        <v>10.09630319975148</v>
+        <v>9.98473282442748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.739670705187947</v>
+        <v>1.709923664122138</v>
       </c>
       <c r="L5" t="n">
-        <v>1.832867350108729</v>
+        <v>1.801526717557252</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -708,16 +708,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.withelle/video/7466861770905226528</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1466</v>
+        <v>1485</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.458390177353342</v>
+        <v>8.417508417508419</v>
       </c>
       <c r="I6" t="n">
-        <v>7.639836289222374</v>
+        <v>7.609427609427609</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8185538881309686</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="L6" t="n">
-        <v>1.364256480218281</v>
+        <v>1.414141414141414</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -759,53 +759,52 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.withelle/video/7466138825861893409</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4311</v>
+        <v>4428</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>411</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>UGC example @NIVEA @NIVEA UK
-If your brand is looking for a content like this, drop and enquiry email to ugcwithelle15@gmail.com</t>
+          <t>Ugc example (paid AD and problem/solution style) @Vaseline Brand @Vaseline #ugcukcreator #ugcuk</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.876362792855486</v>
+        <v>10.74977416440831</v>
       </c>
       <c r="I7" t="n">
-        <v>2.59800510322431</v>
+        <v>9.281842818428185</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2783576896311761</v>
+        <v>1.467931345980126</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4639294827186268</v>
+        <v>3.364950316169828</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-01</t>
         </is>
       </c>
     </row>
